--- a/data/etape_data.xlsx
+++ b/data/etape_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7d62234183fd3ba/Documents/GitHub/etape-calibration-investigation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{D4E7B415-A3DE-4EF3-9A13-07470654BA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23927FD6-C6AA-4E7F-B244-39306807E0D3}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{D4E7B415-A3DE-4EF3-9A13-07470654BA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CB504C2-615A-4AD9-A6A6-4269ED1F3083}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{909A5169-321F-413E-BF35-877FB9F4665B}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="102">
   <si>
     <t>notes</t>
   </si>
@@ -286,15 +286,81 @@
   <si>
     <t>Unsure why this results in nonlinear (exponential?) relationship instead of expected linear one. Suspect hardware issue. Do not include in master analysis for eTape calibration.</t>
   </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-345</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-346</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-347</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-348</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-349</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-350</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-351</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-352</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-353</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-354</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-355</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-356</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-357</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-358</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-359</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-360</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-361</t>
+  </si>
+  <si>
+    <t>Broken (Incorrect Readings); Jumping all over from 222,374-362</t>
+  </si>
+  <si>
+    <t>broken etape</t>
+  </si>
+  <si>
+    <t>don't include values less than 0 because etape doesn't respond</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -660,8 +726,8 @@
   <dimension ref="A1:I1339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
+      <pane ySplit="1" topLeftCell="A1148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1182" sqref="G1182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11202,7 +11268,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529">
         <v>2024</v>
       </c>
@@ -11222,7 +11288,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530">
         <v>2024</v>
       </c>
@@ -11242,7 +11308,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531">
         <v>2024</v>
       </c>
@@ -11262,7 +11328,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532">
         <v>2024</v>
       </c>
@@ -11282,7 +11348,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533">
         <v>2024</v>
       </c>
@@ -11302,7 +11368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534">
         <v>2024</v>
       </c>
@@ -11322,7 +11388,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535">
         <v>2024</v>
       </c>
@@ -11342,7 +11408,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536">
         <v>2024</v>
       </c>
@@ -11362,7 +11428,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537">
         <v>2024</v>
       </c>
@@ -11382,7 +11448,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538">
         <v>2024</v>
       </c>
@@ -11402,7 +11468,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539">
         <v>2024</v>
       </c>
@@ -11419,10 +11485,13 @@
         <v>15</v>
       </c>
       <c r="F539" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G539" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540">
         <v>2024</v>
       </c>
@@ -11439,10 +11508,13 @@
         <v>15</v>
       </c>
       <c r="F540" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G540" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541">
         <v>2024</v>
       </c>
@@ -11459,10 +11531,13 @@
         <v>15</v>
       </c>
       <c r="F541" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G541" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542">
         <v>2024</v>
       </c>
@@ -11479,10 +11554,13 @@
         <v>15</v>
       </c>
       <c r="F542" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G542" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543">
         <v>2024</v>
       </c>
@@ -11499,10 +11577,13 @@
         <v>15</v>
       </c>
       <c r="F543" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G543" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544">
         <v>2024</v>
       </c>
@@ -11519,10 +11600,13 @@
         <v>15</v>
       </c>
       <c r="F544" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G544" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545">
         <v>2024</v>
       </c>
@@ -11539,10 +11623,13 @@
         <v>15</v>
       </c>
       <c r="F545" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G545" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546">
         <v>2024</v>
       </c>
@@ -11559,10 +11646,13 @@
         <v>15</v>
       </c>
       <c r="F546" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G546" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547">
         <v>2024</v>
       </c>
@@ -11579,10 +11669,13 @@
         <v>15</v>
       </c>
       <c r="F547" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G547" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548">
         <v>2024</v>
       </c>
@@ -11599,10 +11692,13 @@
         <v>15</v>
       </c>
       <c r="F548" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G548" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549">
         <v>2024</v>
       </c>
@@ -11619,10 +11715,13 @@
         <v>15</v>
       </c>
       <c r="F549" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G549" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550">
         <v>2024</v>
       </c>
@@ -11639,10 +11738,13 @@
         <v>15</v>
       </c>
       <c r="F550" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G550" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551">
         <v>2024</v>
       </c>
@@ -11659,10 +11761,13 @@
         <v>15</v>
       </c>
       <c r="F551" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G551" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552">
         <v>2024</v>
       </c>
@@ -11679,10 +11784,13 @@
         <v>15</v>
       </c>
       <c r="F552" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G552" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553">
         <v>2024</v>
       </c>
@@ -11699,10 +11807,13 @@
         <v>15</v>
       </c>
       <c r="F553" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G553" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554">
         <v>2024</v>
       </c>
@@ -11722,7 +11833,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555">
         <v>2024</v>
       </c>
@@ -11742,7 +11853,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556">
         <v>2024</v>
       </c>
@@ -11762,7 +11873,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557">
         <v>2024</v>
       </c>
@@ -11782,7 +11893,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558">
         <v>2024</v>
       </c>
@@ -11802,7 +11913,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559">
         <v>2024</v>
       </c>
@@ -11822,7 +11933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560">
         <v>2024</v>
       </c>
@@ -13442,7 +13553,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641">
         <v>2024</v>
       </c>
@@ -13459,10 +13570,13 @@
         <v>18</v>
       </c>
       <c r="F641" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G641" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642">
         <v>2024</v>
       </c>
@@ -13479,10 +13593,13 @@
         <v>18</v>
       </c>
       <c r="F642" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G642" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643">
         <v>2024</v>
       </c>
@@ -13499,10 +13616,13 @@
         <v>18</v>
       </c>
       <c r="F643" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G643" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644">
         <v>2024</v>
       </c>
@@ -13519,10 +13639,13 @@
         <v>18</v>
       </c>
       <c r="F644" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G644" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645">
         <v>2024</v>
       </c>
@@ -13539,10 +13662,13 @@
         <v>18</v>
       </c>
       <c r="F645" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G645" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646">
         <v>2024</v>
       </c>
@@ -13559,10 +13685,13 @@
         <v>18</v>
       </c>
       <c r="F646" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G646" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647">
         <v>2024</v>
       </c>
@@ -13579,10 +13708,13 @@
         <v>18</v>
       </c>
       <c r="F647" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G647" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648">
         <v>2024</v>
       </c>
@@ -13599,10 +13731,13 @@
         <v>18</v>
       </c>
       <c r="F648" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G648" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649">
         <v>2024</v>
       </c>
@@ -13619,10 +13754,13 @@
         <v>18</v>
       </c>
       <c r="F649" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G649" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650">
         <v>2024</v>
       </c>
@@ -13639,10 +13777,13 @@
         <v>18</v>
       </c>
       <c r="F650" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G650" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651">
         <v>2024</v>
       </c>
@@ -13659,10 +13800,13 @@
         <v>18</v>
       </c>
       <c r="F651" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G651" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652">
         <v>2024</v>
       </c>
@@ -13679,10 +13823,13 @@
         <v>18</v>
       </c>
       <c r="F652" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G652" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653">
         <v>2024</v>
       </c>
@@ -13699,10 +13846,13 @@
         <v>18</v>
       </c>
       <c r="F653" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G653" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654">
         <v>2024</v>
       </c>
@@ -13719,10 +13869,13 @@
         <v>18</v>
       </c>
       <c r="F654" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G654" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655">
         <v>2024</v>
       </c>
@@ -13739,10 +13892,13 @@
         <v>18</v>
       </c>
       <c r="F655" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G655" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656">
         <v>2024</v>
       </c>
@@ -13759,10 +13915,13 @@
         <v>18</v>
       </c>
       <c r="F656" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G656" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657">
         <v>2024</v>
       </c>
@@ -13779,10 +13938,13 @@
         <v>18</v>
       </c>
       <c r="F657" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G657" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658">
         <v>2024</v>
       </c>
@@ -13799,10 +13961,13 @@
         <v>18</v>
       </c>
       <c r="F658" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G658" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659">
         <v>2024</v>
       </c>
@@ -13822,7 +13987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660">
         <v>2024</v>
       </c>
@@ -13842,7 +14007,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661">
         <v>2024</v>
       </c>
@@ -13862,7 +14027,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662">
         <v>2024</v>
       </c>
@@ -13882,7 +14047,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663">
         <v>2024</v>
       </c>
@@ -13902,7 +14067,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664">
         <v>2024</v>
       </c>
@@ -13922,7 +14087,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665">
         <v>2024</v>
       </c>
@@ -13942,7 +14107,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666">
         <v>2024</v>
       </c>
@@ -13962,7 +14127,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667">
         <v>2024</v>
       </c>
@@ -13982,7 +14147,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668">
         <v>2024</v>
       </c>
@@ -14002,7 +14167,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669">
         <v>2024</v>
       </c>
@@ -14022,7 +14187,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670">
         <v>2024</v>
       </c>
@@ -14042,7 +14207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671">
         <v>2024</v>
       </c>
@@ -14062,7 +14227,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672">
         <v>2024</v>
       </c>
@@ -24002,7 +24167,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1169">
         <v>2025</v>
       </c>
@@ -24022,7 +24187,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1170">
         <v>2025</v>
       </c>
@@ -24042,7 +24207,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1171">
         <v>2025</v>
       </c>
@@ -24062,7 +24227,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1172">
         <v>2025</v>
       </c>
@@ -24082,7 +24247,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1173">
         <v>2025</v>
       </c>
@@ -24102,7 +24267,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1174">
         <v>2025</v>
       </c>
@@ -24122,7 +24287,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1175">
         <v>2025</v>
       </c>
@@ -24142,7 +24307,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1176">
         <v>2025</v>
       </c>
@@ -24162,7 +24327,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1177">
         <v>2025</v>
       </c>
@@ -24182,7 +24347,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1178">
         <v>2025</v>
       </c>
@@ -24202,7 +24367,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1179">
         <v>2025</v>
       </c>
@@ -24222,7 +24387,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1180">
         <v>2025</v>
       </c>
@@ -24242,7 +24407,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1181">
         <v>2025</v>
       </c>
@@ -24259,10 +24424,13 @@
         <v>8</v>
       </c>
       <c r="F1181" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="1182" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="G1181" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1182">
         <v>2025</v>
       </c>
@@ -24282,7 +24450,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1183">
         <v>2025</v>
       </c>
@@ -24302,7 +24470,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="1184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1184">
         <v>2025</v>
       </c>
@@ -27423,6 +27591,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/etape_data.xlsx
+++ b/data/etape_data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c7d62234183fd3ba/Documents/GitHub/etape-calibration-investigation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{D4E7B415-A3DE-4EF3-9A13-07470654BA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CB504C2-615A-4AD9-A6A6-4269ED1F3083}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{D4E7B415-A3DE-4EF3-9A13-07470654BA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A4D4168-03DF-445A-B511-0B2B02CBF30C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{909A5169-321F-413E-BF35-877FB9F4665B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{909A5169-321F-413E-BF35-877FB9F4665B}"/>
   </bookViews>
   <sheets>
     <sheet name="Clean CSV" sheetId="3" r:id="rId1"/>
+    <sheet name="Single Etape Experiment" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Clean CSV'!$A$1:$I$1339</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="108">
   <si>
     <t>notes</t>
   </si>
@@ -346,6 +347,24 @@
   <si>
     <t>don't include values less than 0 because etape doesn't respond</t>
   </si>
+  <si>
+    <t>Kenzie</t>
+  </si>
+  <si>
+    <t>Abby</t>
+  </si>
+  <si>
+    <t>Naomi</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
 </sst>
 </file>
 
@@ -366,12 +385,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -386,9 +411,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,9 +752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73D9E81-EE70-43DE-A38B-1124F2BE02D4}">
   <dimension ref="A1:I1339"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1182" sqref="G1182"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1287" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27596,7 +27623,1788 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CCA7ED-C1DC-43D5-B991-BFFCD6F031D1}">
+  <dimension ref="A1:H73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2914</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" s="2">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B3" s="2">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2748</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="2">
+        <v>18</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2607</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="2">
+        <v>18</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2390</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="2">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2232</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="2">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2101</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="2">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1947</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="2">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1815</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1683</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="2">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1541</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="2">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1393</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="2">
+        <v>18</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1274</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="2">
+        <v>18</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1118</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="2">
+        <v>18</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>947</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="2">
+        <v>18</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="2">
+        <v>840</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="2">
+        <v>18</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2">
+        <v>722</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2">
+        <v>18</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="2">
+        <v>551</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="2">
+        <v>460</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E19" s="2">
+        <v>18</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2914</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="2">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2713</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="2">
+        <v>18</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2563</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E22" s="2">
+        <v>18</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4</v>
+      </c>
+      <c r="C23" s="2">
+        <v>2378</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="2">
+        <v>18</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2223</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="2">
+        <v>18</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2064</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E25" s="2">
+        <v>18</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1931</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="2">
+        <v>18</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B27" s="2">
+        <v>8</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1783</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="2">
+        <v>18</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1670</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="2">
+        <v>18</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B29" s="2">
+        <v>10</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1521</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" s="2">
+        <v>18</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B30" s="2">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1389</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="2">
+        <v>18</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B31" s="2">
+        <v>12</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1270</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="2">
+        <v>18</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B32" s="2">
+        <v>13</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1095</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E32" s="2">
+        <v>18</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B33" s="2">
+        <v>14</v>
+      </c>
+      <c r="C33" s="2">
+        <v>968</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="2">
+        <v>18</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33" s="2"/>
+      <c r="H33" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B34" s="2">
+        <v>15</v>
+      </c>
+      <c r="C34" s="2">
+        <v>829</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E34" s="2">
+        <v>18</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="H34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B35" s="2">
+        <v>16</v>
+      </c>
+      <c r="C35" s="2">
+        <v>699</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="2">
+        <v>18</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35" s="2"/>
+      <c r="H35" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B36" s="2">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2">
+        <v>542</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="2">
+        <v>18</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B37" s="2">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2">
+        <v>445</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E37" s="2">
+        <v>18</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="H37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="2">
+        <v>2917</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E38" s="2">
+        <v>18</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="C39" s="2">
+        <v>2737</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="2">
+        <v>18</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>2591</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="2">
+        <v>18</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40" s="2"/>
+      <c r="H40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B41" s="2">
+        <v>4</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2390</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="2">
+        <v>18</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B42" s="2">
+        <v>5</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2234</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E42" s="2">
+        <v>18</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B43" s="2">
+        <v>6</v>
+      </c>
+      <c r="C43" s="2">
+        <v>2101</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="2">
+        <v>18</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B44" s="2">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1935</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" s="2">
+        <v>18</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="H44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B45" s="2">
+        <v>8</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1813</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E45" s="2">
+        <v>18</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B46" s="2">
+        <v>9</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1676</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E46" s="2">
+        <v>18</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B47" s="2">
+        <v>10</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1541</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E47" s="2">
+        <v>18</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B48" s="2">
+        <v>11</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1390</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="2">
+        <v>18</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G48" s="2"/>
+      <c r="H48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B49" s="2">
+        <v>12</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1274</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E49" s="2">
+        <v>18</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B50" s="2">
+        <v>13</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1112</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E50" s="2">
+        <v>18</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="H50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B51" s="2">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2">
+        <v>968</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E51" s="2">
+        <v>18</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B52" s="2">
+        <v>15</v>
+      </c>
+      <c r="C52" s="2">
+        <v>843</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E52" s="2">
+        <v>18</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G52" s="2"/>
+      <c r="H52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B53" s="2">
+        <v>16</v>
+      </c>
+      <c r="C53" s="2">
+        <v>718</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53" s="2">
+        <v>18</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B54" s="2">
+        <v>17</v>
+      </c>
+      <c r="C54" s="2">
+        <v>540</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" s="2">
+        <v>18</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B55" s="2">
+        <v>18</v>
+      </c>
+      <c r="C55" s="2">
+        <v>446</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E55" s="2">
+        <v>18</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2917</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E56" s="2">
+        <v>18</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B57" s="2">
+        <v>2</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2711</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E57" s="2">
+        <v>18</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B58" s="2">
+        <v>3</v>
+      </c>
+      <c r="C58" s="2">
+        <v>2568</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E58" s="2">
+        <v>18</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="H58" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B59" s="2">
+        <v>4</v>
+      </c>
+      <c r="C59" s="2">
+        <v>2390</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="2">
+        <v>18</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B60" s="2">
+        <v>5</v>
+      </c>
+      <c r="C60" s="2">
+        <v>2225</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="2">
+        <v>18</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="2"/>
+      <c r="H60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B61" s="2">
+        <v>6</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2086</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="2">
+        <v>18</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G61" s="2"/>
+      <c r="H61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B62" s="2">
+        <v>7</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1931</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="2">
+        <v>18</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="2"/>
+      <c r="H62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B63" s="2">
+        <v>8</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1789</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="2">
+        <v>18</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G63" s="2"/>
+      <c r="H63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B64" s="2">
+        <v>9</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1667</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="2">
+        <v>18</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B65" s="2">
+        <v>10</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1523</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="2">
+        <v>18</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B66" s="2">
+        <v>11</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1392</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E66" s="2">
+        <v>18</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B67" s="2">
+        <v>12</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1265</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E67" s="2">
+        <v>18</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B68" s="2">
+        <v>13</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1095</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E68" s="2">
+        <v>18</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" s="2"/>
+      <c r="H68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B69" s="2">
+        <v>14</v>
+      </c>
+      <c r="C69" s="2">
+        <v>965</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E69" s="2">
+        <v>18</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B70" s="2">
+        <v>15</v>
+      </c>
+      <c r="C70" s="2">
+        <v>829</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E70" s="2">
+        <v>18</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B71" s="2">
+        <v>16</v>
+      </c>
+      <c r="C71" s="2">
+        <v>695</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E71" s="2">
+        <v>18</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B72" s="2">
+        <v>17</v>
+      </c>
+      <c r="C72" s="2">
+        <v>541</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="2">
+        <v>18</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>2025</v>
+      </c>
+      <c r="B73" s="2">
+        <v>18</v>
+      </c>
+      <c r="C73" s="2">
+        <v>454</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E73" s="2">
+        <v>18</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="167cb1e9-24b5-43e0-9f5d-14a54474cc90">
@@ -27605,15 +29413,6 @@
     <TaxCatchAll xmlns="fbf6f0f6-9634-473c-8838-2f74fc79f714" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -27878,20 +29677,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D72C4A-9DFE-4205-BBF6-D58A83B84DD6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E72F5D43-88AE-4BF1-8675-4A9EC0B486B2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="167cb1e9-24b5-43e0-9f5d-14a54474cc90"/>
     <ds:schemaRef ds:uri="fbf6f0f6-9634-473c-8838-2f74fc79f714"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D72C4A-9DFE-4205-BBF6-D58A83B84DD6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
